--- a/exercicios/1.3-exercicio-pclinics/modelagem/04_modelagem_fisico.xlsx
+++ b/exercicios/1.3-exercicio-pclinics/modelagem/04_modelagem_fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SENAI\Senai_Sprint1_BD\exercicios\1.3-exercicio-pclinics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SENAI\Senai_Sprint1_BD\exercicios\1.3-exercicio-pclinics\modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03699C2-FE7A-4681-BEE5-D3B3685E7956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77E8B98-13C1-475B-B983-339DD0314289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>nomeRaca</t>
   </si>
   <si>
-    <t>BullTerrier</t>
-  </si>
-  <si>
     <t>idTipoPet</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>Cachorro</t>
   </si>
   <si>
-    <t>Siames</t>
-  </si>
-  <si>
     <t>Gato</t>
   </si>
   <si>
@@ -124,14 +118,33 @@
   </si>
   <si>
     <t>Lennon</t>
+  </si>
+  <si>
+    <t>Pastor Alemão</t>
+  </si>
+  <si>
+    <t>Persa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -201,16 +214,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -220,9 +227,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -230,9 +234,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,9 +245,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -256,9 +254,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -266,13 +261,33 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,16 +576,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -584,234 +599,237 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="H1" s="12" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="M1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="8"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="M1" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="23"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>23</v>
+      <c r="M2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19">
-        <v>2</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="15">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15">
-        <v>2</v>
-      </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-      <c r="K3" s="16">
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>2</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <v>2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
         <v>44412</v>
       </c>
-      <c r="M3" s="11">
-        <v>1</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>24</v>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="19">
-        <v>2</v>
-      </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="15">
-        <v>2</v>
-      </c>
-      <c r="I4" s="15">
-        <v>1</v>
-      </c>
-      <c r="J4" s="15">
-        <v>2</v>
-      </c>
-      <c r="K4" s="16">
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2</v>
+      </c>
+      <c r="K4" s="12">
         <v>44411</v>
       </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>26</v>
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="H6" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="E6" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="H6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="H7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="27" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="25">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="28">
-        <v>1</v>
-      </c>
-      <c r="I8" s="28">
-        <v>2</v>
-      </c>
-      <c r="J8" s="28">
-        <v>1</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>32</v>
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="21">
+        <v>1</v>
+      </c>
+      <c r="I8" s="21">
+        <v>2</v>
+      </c>
+      <c r="J8" s="21">
+        <v>1</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="25">
-        <v>2</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="28">
-        <v>2</v>
-      </c>
-      <c r="I9" s="28">
-        <v>1</v>
-      </c>
-      <c r="J9" s="28">
-        <v>2</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21">
+        <v>2</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -824,5 +842,6 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>